--- a/AAII_Financials/Quarterly/HHRS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HHRS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -945,16 +945,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E17" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F17" s="3">
         <v>1300</v>
       </c>
       <c r="G17" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
@@ -977,13 +977,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F18" s="3">
         <v>-1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-9000</v>
+        <v>-8800</v>
       </c>
       <c r="H18" s="3">
         <v>-800</v>
@@ -1019,16 +1019,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="F20" s="3">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="G20" s="3">
-        <v>27800</v>
+        <v>27100</v>
       </c>
       <c r="H20" s="3">
-        <v>-17100</v>
+        <v>-16700</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="E23" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="F23" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="G23" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="H23" s="3">
-        <v>-17900</v>
+        <v>-17500</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
@@ -1190,19 +1190,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="E26" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="F26" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="G26" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="H26" s="3">
-        <v>-17900</v>
+        <v>-17500</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
@@ -1219,19 +1219,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="E27" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="F27" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="G27" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="H27" s="3">
-        <v>-17900</v>
+        <v>-17500</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
@@ -1367,16 +1367,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-15800</v>
+        <v>-15400</v>
       </c>
       <c r="F32" s="3">
-        <v>-14800</v>
+        <v>-14400</v>
       </c>
       <c r="G32" s="3">
-        <v>-27800</v>
+        <v>-27100</v>
       </c>
       <c r="H32" s="3">
-        <v>17100</v>
+        <v>16700</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1393,19 +1393,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="E33" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="F33" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="G33" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="H33" s="3">
-        <v>-17900</v>
+        <v>-17500</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
@@ -1451,19 +1451,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="E35" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="F35" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="G35" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="H35" s="3">
-        <v>-17900</v>
+        <v>-17500</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
@@ -1714,19 +1714,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>444300</v>
+        <v>433800</v>
       </c>
       <c r="E47" s="3">
-        <v>442300</v>
+        <v>431900</v>
       </c>
       <c r="F47" s="3">
-        <v>441700</v>
+        <v>431300</v>
       </c>
       <c r="G47" s="3">
-        <v>441700</v>
+        <v>431200</v>
       </c>
       <c r="H47" s="3">
-        <v>441700</v>
+        <v>431200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>445100</v>
+        <v>434500</v>
       </c>
       <c r="E54" s="3">
-        <v>443300</v>
+        <v>432800</v>
       </c>
       <c r="F54" s="3">
-        <v>442900</v>
+        <v>432400</v>
       </c>
       <c r="G54" s="3">
-        <v>443200</v>
+        <v>432700</v>
       </c>
       <c r="H54" s="3">
-        <v>444400</v>
+        <v>433900</v>
       </c>
       <c r="I54" s="3">
         <v>600</v>
@@ -2001,7 +2001,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
         <v>1300</v>
@@ -2030,19 +2030,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="E59" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="F59" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="G59" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -2059,22 +2059,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="E60" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="F60" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="G60" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
       </c>
       <c r="I60" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -2117,19 +2117,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37000</v>
+        <v>36100</v>
       </c>
       <c r="E62" s="3">
-        <v>23200</v>
+        <v>22700</v>
       </c>
       <c r="F62" s="3">
-        <v>38400</v>
+        <v>37500</v>
       </c>
       <c r="G62" s="3">
-        <v>53100</v>
+        <v>51900</v>
       </c>
       <c r="H62" s="3">
-        <v>80900</v>
+        <v>79000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2233,22 +2233,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54200</v>
+        <v>52900</v>
       </c>
       <c r="E66" s="3">
-        <v>35900</v>
+        <v>35100</v>
       </c>
       <c r="F66" s="3">
-        <v>47800</v>
+        <v>46700</v>
       </c>
       <c r="G66" s="3">
-        <v>61500</v>
+        <v>60100</v>
       </c>
       <c r="H66" s="3">
-        <v>81600</v>
+        <v>79700</v>
       </c>
       <c r="I66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -2391,19 +2391,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-53400</v>
+        <v>-52100</v>
       </c>
       <c r="E72" s="3">
-        <v>-34800</v>
+        <v>-34000</v>
       </c>
       <c r="F72" s="3">
-        <v>-46500</v>
+        <v>-45400</v>
       </c>
       <c r="G72" s="3">
-        <v>-60000</v>
+        <v>-58600</v>
       </c>
       <c r="H72" s="3">
-        <v>-78900</v>
+        <v>-77000</v>
       </c>
       <c r="I72" s="3">
         <v>-700</v>
@@ -2507,19 +2507,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>390800</v>
+        <v>381600</v>
       </c>
       <c r="E76" s="3">
-        <v>407400</v>
+        <v>397700</v>
       </c>
       <c r="F76" s="3">
-        <v>395100</v>
+        <v>385800</v>
       </c>
       <c r="G76" s="3">
-        <v>381600</v>
+        <v>372600</v>
       </c>
       <c r="H76" s="3">
-        <v>362800</v>
+        <v>354200</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
@@ -2599,19 +2599,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="E81" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="F81" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="G81" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="H81" s="3">
-        <v>-17900</v>
+        <v>-17500</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
@@ -2815,7 +2815,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/HHRS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HHRS_QTR_FIN.xlsx
@@ -1714,19 +1714,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>433800</v>
+        <v>434000</v>
       </c>
       <c r="E47" s="3">
-        <v>431900</v>
+        <v>432100</v>
       </c>
       <c r="F47" s="3">
-        <v>431300</v>
+        <v>431500</v>
       </c>
       <c r="G47" s="3">
-        <v>431200</v>
+        <v>431400</v>
       </c>
       <c r="H47" s="3">
-        <v>431200</v>
+        <v>431400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>434500</v>
+        <v>434800</v>
       </c>
       <c r="E54" s="3">
-        <v>432800</v>
+        <v>433000</v>
       </c>
       <c r="F54" s="3">
-        <v>432400</v>
+        <v>432700</v>
       </c>
       <c r="G54" s="3">
-        <v>432700</v>
+        <v>432900</v>
       </c>
       <c r="H54" s="3">
-        <v>433900</v>
+        <v>434100</v>
       </c>
       <c r="I54" s="3">
         <v>600</v>
@@ -2074,7 +2074,7 @@
         <v>700</v>
       </c>
       <c r="I60" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -2233,7 +2233,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52900</v>
+        <v>53000</v>
       </c>
       <c r="E66" s="3">
         <v>35100</v>
@@ -2248,7 +2248,7 @@
         <v>79700</v>
       </c>
       <c r="I66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -2397,7 +2397,7 @@
         <v>-34000</v>
       </c>
       <c r="F72" s="3">
-        <v>-45400</v>
+        <v>-45500</v>
       </c>
       <c r="G72" s="3">
         <v>-58600</v>
@@ -2507,19 +2507,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>381600</v>
+        <v>381800</v>
       </c>
       <c r="E76" s="3">
-        <v>397700</v>
+        <v>397900</v>
       </c>
       <c r="F76" s="3">
-        <v>385800</v>
+        <v>386000</v>
       </c>
       <c r="G76" s="3">
-        <v>372600</v>
+        <v>372800</v>
       </c>
       <c r="H76" s="3">
-        <v>354200</v>
+        <v>354400</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
